--- a/literature/04.reseach-interface-comparative-experiments/20151001-山中-ゾンビグラフあり.xlsx
+++ b/literature/04.reseach-interface-comparative-experiments/20151001-山中-ゾンビグラフあり.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20151001-山中-ゾンビグラフあり.ラグランジェ" sheetId="1" r:id="rId1"/>
@@ -818,11 +818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110606136"/>
-        <c:axId val="-2110716008"/>
+        <c:axId val="2121996840"/>
+        <c:axId val="-2127879256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110606136"/>
+        <c:axId val="2121996840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,19 +845,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110716008"/>
+        <c:crossAx val="-2127879256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2110716008"/>
+        <c:axId val="-2127879256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -882,25 +883,32 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110606136"/>
+        <c:crossAx val="2121996840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1202,11 +1210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2110589960"/>
-        <c:axId val="-2105721960"/>
+        <c:axId val="-2128754584"/>
+        <c:axId val="-2129179272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2110589960"/>
+        <c:axId val="-2128754584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,19 +1237,20 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105721960"/>
+        <c:crossAx val="-2129179272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2105721960"/>
+        <c:axId val="-2129179272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1266,19 +1275,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110589960"/>
+        <c:crossAx val="-2128754584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1559,11 +1570,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2108009208"/>
-        <c:axId val="-2112295640"/>
+        <c:axId val="2118552696"/>
+        <c:axId val="2104349064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2108009208"/>
+        <c:axId val="2118552696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,12 +1603,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112295640"/>
+        <c:crossAx val="2104349064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2112295640"/>
+        <c:axId val="2104349064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1627,7 +1638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108009208"/>
+        <c:crossAx val="2118552696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1914,11 +1925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085196840"/>
-        <c:axId val="-2109032344"/>
+        <c:axId val="-2121509592"/>
+        <c:axId val="-2126721256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2085196840"/>
+        <c:axId val="-2121509592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -1949,12 +1960,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109032344"/>
+        <c:crossAx val="-2126721256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2109032344"/>
+        <c:axId val="-2126721256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +1995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085196840"/>
+        <c:crossAx val="-2121509592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2466,8 +2477,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3425,7 +3436,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>

--- a/literature/04.reseach-interface-comparative-experiments/20151001-山中-ゾンビグラフあり.xlsx
+++ b/literature/04.reseach-interface-comparative-experiments/20151001-山中-ゾンビグラフあり.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680" tabRatio="500"/>
+    <workbookView xWindow="9420" yWindow="560" windowWidth="16180" windowHeight="13680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20151001-山中-ゾンビグラフあり.ラグランジェ" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14210584742481"/>
+          <c:y val="0.038961038961039"/>
+          <c:w val="0.604107654575965"/>
+          <c:h val="0.848051948051948"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -818,11 +828,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121996840"/>
-        <c:axId val="-2127879256"/>
+        <c:axId val="-2062131880"/>
+        <c:axId val="-2062126536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121996840"/>
+        <c:axId val="-2062131880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,30 +845,37 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1200" b="0"/>
                   <a:t>TIME [min]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.34880005163289"/>
+              <c:y val="0.887012987012987"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127879256"/>
+        <c:crossAx val="-2062126536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127879256"/>
+        <c:axId val="-2062126536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -873,32 +890,68 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1400" b="0"/>
                   <a:t>Value of UX [%]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0"/>
+              <c:y val="0.145530217813682"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121996840"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2062131880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76609577901123"/>
+          <c:y val="0.369591471520605"/>
+          <c:w val="0.23390422098877"/>
+          <c:h val="0.260817056958789"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1210,11 +1263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128754584"/>
-        <c:axId val="-2129179272"/>
+        <c:axId val="-2065938440"/>
+        <c:axId val="-2064963976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128754584"/>
+        <c:axId val="-2065938440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,13 +1297,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129179272"/>
+        <c:crossAx val="-2064963976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129179272"/>
+        <c:axId val="-2064963976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1282,7 +1335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128754584"/>
+        <c:crossAx val="-2065938440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1570,11 +1623,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118552696"/>
-        <c:axId val="2104349064"/>
+        <c:axId val="-2062241464"/>
+        <c:axId val="-2062235896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118552696"/>
+        <c:axId val="-2062241464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,12 +1656,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104349064"/>
+        <c:crossAx val="-2062235896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2104349064"/>
+        <c:axId val="-2062235896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1638,7 +1691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118552696"/>
+        <c:crossAx val="-2062241464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1925,11 +1978,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121509592"/>
-        <c:axId val="-2126721256"/>
+        <c:axId val="-2066571240"/>
+        <c:axId val="-2062731448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2121509592"/>
+        <c:axId val="-2066571240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -1953,19 +2006,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126721256"/>
+        <c:crossAx val="-2062731448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126721256"/>
+        <c:axId val="-2062731448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,21 +2040,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121509592"/>
+        <c:crossAx val="-2066571240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2021,16 +2071,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2477,8 +2527,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
